--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1188.848245318725</v>
+        <v>1272.078867609351</v>
       </c>
       <c r="AB2" t="n">
-        <v>1626.63461752805</v>
+        <v>1740.514426821991</v>
       </c>
       <c r="AC2" t="n">
-        <v>1471.390892627196</v>
+        <v>1574.402172753441</v>
       </c>
       <c r="AD2" t="n">
-        <v>1188848.245318725</v>
+        <v>1272078.867609351</v>
       </c>
       <c r="AE2" t="n">
-        <v>1626634.61752805</v>
+        <v>1740514.426821992</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233458669935204e-06</v>
+        <v>2.085223081058858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.42795138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1471390.892627196</v>
+        <v>1574402.172753441</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>565.336576170573</v>
+        <v>617.3237458474565</v>
       </c>
       <c r="AB3" t="n">
-        <v>773.5184444060799</v>
+        <v>844.6495834700499</v>
       </c>
       <c r="AC3" t="n">
-        <v>699.694929711918</v>
+        <v>764.0374126968036</v>
       </c>
       <c r="AD3" t="n">
-        <v>565336.576170573</v>
+        <v>617323.7458474565</v>
       </c>
       <c r="AE3" t="n">
-        <v>773518.4444060798</v>
+        <v>844649.5834700499</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.935944706767577e-06</v>
+        <v>3.272810581012445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.46657986111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>699694.929711918</v>
+        <v>764037.4126968036</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.7844971381659</v>
+        <v>486.4425234650403</v>
       </c>
       <c r="AB4" t="n">
-        <v>608.5737714915662</v>
+        <v>665.5721209344102</v>
       </c>
       <c r="AC4" t="n">
-        <v>550.4923448790632</v>
+        <v>602.050851848768</v>
       </c>
       <c r="AD4" t="n">
-        <v>444784.4971381659</v>
+        <v>486442.5234650403</v>
       </c>
       <c r="AE4" t="n">
-        <v>608573.7714915662</v>
+        <v>665572.1209344103</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.215109147241899e-06</v>
+        <v>3.7447519187133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.147135416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>550492.3448790632</v>
+        <v>602050.8518487681</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.0296228369653</v>
+        <v>439.0167030052978</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.5510045074357</v>
+        <v>600.6820211018577</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.011399866748</v>
+        <v>543.3537720704072</v>
       </c>
       <c r="AD5" t="n">
-        <v>387029.6228369653</v>
+        <v>439016.7030052978</v>
       </c>
       <c r="AE5" t="n">
-        <v>529551.0045074357</v>
+        <v>600682.0211018577</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.339099239867283e-06</v>
+        <v>3.95436332221388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.663194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>479011.399866748</v>
+        <v>543353.7720704072</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.2904628157196</v>
+        <v>440.2775429840522</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.2761413907017</v>
+        <v>602.4071579851235</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.5718921071198</v>
+        <v>544.9142643107789</v>
       </c>
       <c r="AD6" t="n">
-        <v>388290.4628157197</v>
+        <v>440277.5429840522</v>
       </c>
       <c r="AE6" t="n">
-        <v>531276.1413907016</v>
+        <v>602407.1579851235</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.343394077413042e-06</v>
+        <v>3.961623958178508e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>480571.8921071198</v>
+        <v>544914.2643107789</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>819.4663619466628</v>
+        <v>890.1003368536836</v>
       </c>
       <c r="AB2" t="n">
-        <v>1121.230028719812</v>
+        <v>1217.874549338644</v>
       </c>
       <c r="AC2" t="n">
-        <v>1014.221408435021</v>
+        <v>1101.642311647429</v>
       </c>
       <c r="AD2" t="n">
-        <v>819466.3619466628</v>
+        <v>890100.3368536837</v>
       </c>
       <c r="AE2" t="n">
-        <v>1121230.028719812</v>
+        <v>1217874.549338644</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518619405946371e-06</v>
+        <v>2.629931431007244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1014221.408435021</v>
+        <v>1101642.311647429</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.940782289366</v>
+        <v>489.3936215086668</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.5781430289342</v>
+        <v>669.609943470957</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.2598079749697</v>
+        <v>605.7033102695464</v>
       </c>
       <c r="AD3" t="n">
-        <v>438940.7822893661</v>
+        <v>489393.6215086668</v>
       </c>
       <c r="AE3" t="n">
-        <v>600578.1430289341</v>
+        <v>669609.943470957</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.185931081560661e-06</v>
+        <v>3.785575790024546e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.58984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>543259.8079749697</v>
+        <v>605703.3102695463</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.8639948676546</v>
+        <v>412.2314932323837</v>
       </c>
       <c r="AB4" t="n">
-        <v>495.1182820906751</v>
+        <v>564.0333154105001</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.8648881508135</v>
+        <v>510.2027674134513</v>
       </c>
       <c r="AD4" t="n">
-        <v>361863.9948676546</v>
+        <v>412231.4932323837</v>
       </c>
       <c r="AE4" t="n">
-        <v>495118.282090675</v>
+        <v>564033.3154105002</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.387505761978525e-06</v>
+        <v>4.134661008908482e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.780381944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>447864.8881508135</v>
+        <v>510202.7674134513</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>362.5381182030255</v>
+        <v>412.9056165677545</v>
       </c>
       <c r="AB5" t="n">
-        <v>496.0406473783521</v>
+        <v>564.9556806981772</v>
       </c>
       <c r="AC5" t="n">
-        <v>448.6992241899825</v>
+        <v>511.0371034526203</v>
       </c>
       <c r="AD5" t="n">
-        <v>362538.1182030255</v>
+        <v>412905.6165677545</v>
       </c>
       <c r="AE5" t="n">
-        <v>496040.6473783521</v>
+        <v>564955.6806981772</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.390596509354361e-06</v>
+        <v>4.140013537420358e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.767361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>448699.2241899825</v>
+        <v>511037.1034526203</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.1961783222667</v>
+        <v>370.7730063858436</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.9477578233787</v>
+        <v>507.30798468771</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.4825683048149</v>
+        <v>458.8912226403426</v>
       </c>
       <c r="AD2" t="n">
-        <v>325196.1783222667</v>
+        <v>370773.0063858436</v>
       </c>
       <c r="AE2" t="n">
-        <v>444947.7578233787</v>
+        <v>507307.98468771</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39100488799351e-06</v>
+        <v>4.524295767754999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.782986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>402482.5683048149</v>
+        <v>458891.2226403426</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.7225966502475</v>
+        <v>367.2994247138243</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.195050136114</v>
+        <v>502.5552770004453</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.1834523687556</v>
+        <v>454.5921067042833</v>
       </c>
       <c r="AD3" t="n">
-        <v>321722.5966502475</v>
+        <v>367299.4247138243</v>
       </c>
       <c r="AE3" t="n">
-        <v>440195.050136114</v>
+        <v>502555.2770004453</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412883364092796e-06</v>
+        <v>4.565694552557986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.694010416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>398183.4523687556</v>
+        <v>454592.1067042833</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.3210527241557</v>
+        <v>501.2154965434189</v>
       </c>
       <c r="AB2" t="n">
-        <v>607.9396663985929</v>
+        <v>685.7851544378227</v>
       </c>
       <c r="AC2" t="n">
-        <v>549.9187578861911</v>
+        <v>620.3347818037855</v>
       </c>
       <c r="AD2" t="n">
-        <v>444321.0527241557</v>
+        <v>501215.4965434188</v>
       </c>
       <c r="AE2" t="n">
-        <v>607939.6663985929</v>
+        <v>685785.1544378228</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.091704009556721e-06</v>
+        <v>3.810630440054091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69661458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>549918.7578861911</v>
+        <v>620334.7818037855</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.3585087382938</v>
+        <v>374.3451213627347</v>
       </c>
       <c r="AB3" t="n">
-        <v>460.2205507458497</v>
+        <v>512.195509989683</v>
       </c>
       <c r="AC3" t="n">
-        <v>416.2977473062648</v>
+        <v>463.3122893871802</v>
       </c>
       <c r="AD3" t="n">
-        <v>336358.5087382938</v>
+        <v>374345.1213627347</v>
       </c>
       <c r="AE3" t="n">
-        <v>460220.5507458497</v>
+        <v>512195.5099896831</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436283040460183e-06</v>
+        <v>4.438378600484945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.184027777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>416297.7473062648</v>
+        <v>463312.2893871802</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.7745993409711</v>
+        <v>367.7025978302871</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.0026907455317</v>
+        <v>503.1069162451322</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.7231356989587</v>
+        <v>455.0910982736879</v>
       </c>
       <c r="AD2" t="n">
-        <v>323774.5993409711</v>
+        <v>367702.5978302871</v>
       </c>
       <c r="AE2" t="n">
-        <v>443002.6907455316</v>
+        <v>503106.9162451322</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332036685415829e-06</v>
+        <v>4.570040520104361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>400723.1356989588</v>
+        <v>455091.0982736879</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>902.8216143734297</v>
+        <v>973.9663084575217</v>
       </c>
       <c r="AB2" t="n">
-        <v>1235.280362464316</v>
+        <v>1332.623671592556</v>
       </c>
       <c r="AC2" t="n">
-        <v>1117.386938397598</v>
+        <v>1205.439938724832</v>
       </c>
       <c r="AD2" t="n">
-        <v>902821.6143734297</v>
+        <v>973966.3084575217</v>
       </c>
       <c r="AE2" t="n">
-        <v>1235280.362464316</v>
+        <v>1332623.671592556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442665187956132e-06</v>
+        <v>2.482078344289026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.39887152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1117386.938397598</v>
+        <v>1205439.938724832</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>467.9900872555381</v>
+        <v>518.8686197056186</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.3246836485376</v>
+        <v>709.9389363491732</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.2129945424583</v>
+        <v>642.1833606695626</v>
       </c>
       <c r="AD3" t="n">
-        <v>467990.0872555381</v>
+        <v>518868.6197056186</v>
       </c>
       <c r="AE3" t="n">
-        <v>640324.6836485376</v>
+        <v>709938.9363491732</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.116904411945184e-06</v>
+        <v>3.642094258379518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.813368055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>579212.9945424583</v>
+        <v>642183.3606695626</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.1059456944964</v>
+        <v>423.8991372900052</v>
       </c>
       <c r="AB4" t="n">
-        <v>510.5000151718272</v>
+        <v>579.9975007502652</v>
       </c>
       <c r="AC4" t="n">
-        <v>461.7786102150986</v>
+        <v>524.6433533102639</v>
       </c>
       <c r="AD4" t="n">
-        <v>373105.9456944964</v>
+        <v>423899.1372900052</v>
       </c>
       <c r="AE4" t="n">
-        <v>510500.0151718272</v>
+        <v>579997.5007502652</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360315875120107e-06</v>
+        <v>4.060879106410768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.799913194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>461778.6102150986</v>
+        <v>524643.3533102639</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>367.8562303024058</v>
+        <v>418.6494218979146</v>
       </c>
       <c r="AB5" t="n">
-        <v>503.3171229712713</v>
+        <v>572.8146085497093</v>
       </c>
       <c r="AC5" t="n">
-        <v>455.2812431649112</v>
+        <v>518.1459862600767</v>
       </c>
       <c r="AD5" t="n">
-        <v>367856.2303024058</v>
+        <v>418649.4218979146</v>
       </c>
       <c r="AE5" t="n">
-        <v>503317.1229712713</v>
+        <v>572814.6085497093</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.38032098554227e-06</v>
+        <v>4.095297522941846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.726128472222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>455281.2431649112</v>
+        <v>518145.9862600767</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.875957749198</v>
+        <v>375.9634246723554</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.4555708432625</v>
+        <v>514.4097439724095</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.9875303978893</v>
+        <v>465.315199986292</v>
       </c>
       <c r="AD2" t="n">
-        <v>332875.957749198</v>
+        <v>375963.4246723554</v>
       </c>
       <c r="AE2" t="n">
-        <v>455455.5708432625</v>
+        <v>514409.7439724095</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.251507814505636e-06</v>
+        <v>4.513508503358515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>411987.5303978893</v>
+        <v>465315.199986292</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.4698889962301</v>
+        <v>679.2701481160993</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.9542753242418</v>
+        <v>929.4073839363978</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.9312708021043</v>
+        <v>840.7060476449633</v>
       </c>
       <c r="AD2" t="n">
-        <v>620469.8889962301</v>
+        <v>679270.1481160993</v>
       </c>
       <c r="AE2" t="n">
-        <v>848954.2753242418</v>
+        <v>929407.3839363977</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.774920296750212e-06</v>
+        <v>3.143515734369396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>767931.2708021044</v>
+        <v>840706.0476449633</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.2075559480429</v>
+        <v>402.4646524338538</v>
       </c>
       <c r="AB3" t="n">
-        <v>496.9566016345937</v>
+        <v>550.6698929473456</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.5277610575584</v>
+        <v>498.114731234499</v>
       </c>
       <c r="AD3" t="n">
-        <v>363207.5559480428</v>
+        <v>402464.6524338538</v>
       </c>
       <c r="AE3" t="n">
-        <v>496956.6016345937</v>
+        <v>550669.8929473456</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.384340116064985e-06</v>
+        <v>4.222843518473353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.058159722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>449527.7610575584</v>
+        <v>498114.731234499</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.4616389016486</v>
+        <v>392.4475567686516</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.939366803338</v>
+        <v>536.9640607351448</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.0890131996705</v>
+        <v>485.7169644123743</v>
       </c>
       <c r="AD4" t="n">
-        <v>343461.6389016486</v>
+        <v>392447.5567686516</v>
       </c>
       <c r="AE4" t="n">
-        <v>469939.3668033381</v>
+        <v>536964.0607351448</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422453733112268e-06</v>
+        <v>4.290345566368816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.914930555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>425089.0131996705</v>
+        <v>485716.9644123743</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>750.7517135168254</v>
+        <v>820.5964631730125</v>
       </c>
       <c r="AB2" t="n">
-        <v>1027.21161526177</v>
+        <v>1122.776283074251</v>
       </c>
       <c r="AC2" t="n">
-        <v>929.1759804017433</v>
+        <v>1015.620090444054</v>
       </c>
       <c r="AD2" t="n">
-        <v>750751.7135168253</v>
+        <v>820596.4631730125</v>
       </c>
       <c r="AE2" t="n">
-        <v>1027211.615261771</v>
+        <v>1122776.283074251</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.600321125426763e-06</v>
+        <v>2.790820303976886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.22265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>929175.9804017433</v>
+        <v>1015620.090444054</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.0397180574042</v>
+        <v>459.8800843259401</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.0344319217968</v>
+        <v>629.228219852184</v>
       </c>
       <c r="AC3" t="n">
-        <v>507.4900931559504</v>
+        <v>569.1755616768438</v>
       </c>
       <c r="AD3" t="n">
-        <v>410039.7180574042</v>
+        <v>459880.0843259401</v>
       </c>
       <c r="AE3" t="n">
-        <v>561034.4319217968</v>
+        <v>629228.2198521839</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.257590649980581e-06</v>
+        <v>3.93704096254681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.372829861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>507490.0931559504</v>
+        <v>569175.5616768438</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.8266522053382</v>
+        <v>404.7522698198948</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.4894793944469</v>
+        <v>553.7999119774834</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.155044869804</v>
+        <v>500.9460256414097</v>
       </c>
       <c r="AD4" t="n">
-        <v>354826.6522053382</v>
+        <v>404752.2698198948</v>
       </c>
       <c r="AE4" t="n">
-        <v>485489.4793944469</v>
+        <v>553799.9119774833</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404820583532913e-06</v>
+        <v>4.193797110661421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.797743055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>439155.0448698041</v>
+        <v>500946.0256414097</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>356.2668559672418</v>
+        <v>406.1924735817984</v>
       </c>
       <c r="AB5" t="n">
-        <v>487.4600297187892</v>
+        <v>555.7704623018257</v>
       </c>
       <c r="AC5" t="n">
-        <v>440.9375286368758</v>
+        <v>502.7285094084814</v>
       </c>
       <c r="AD5" t="n">
-        <v>356266.8559672418</v>
+        <v>406192.4735817984</v>
       </c>
       <c r="AE5" t="n">
-        <v>487460.0297187892</v>
+        <v>555770.4623018256</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.404235563929393e-06</v>
+        <v>4.192776887556331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.799913194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>440937.5286368757</v>
+        <v>502728.5094084814</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1079.456100552972</v>
+        <v>1162.155503143767</v>
       </c>
       <c r="AB2" t="n">
-        <v>1476.959459018724</v>
+        <v>1590.112430083597</v>
       </c>
       <c r="AC2" t="n">
-        <v>1336.000521175596</v>
+        <v>1438.354331493231</v>
       </c>
       <c r="AD2" t="n">
-        <v>1079456.100552972</v>
+        <v>1162155.503143767</v>
       </c>
       <c r="AE2" t="n">
-        <v>1476959.459018724</v>
+        <v>1590112.430083597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301574561498412e-06</v>
+        <v>2.212590490898673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1336000.521175596</v>
+        <v>1438354.331493231</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>535.6667536323068</v>
+        <v>587.268628905533</v>
       </c>
       <c r="AB3" t="n">
-        <v>732.9228842690341</v>
+        <v>803.5268465319308</v>
       </c>
       <c r="AC3" t="n">
-        <v>662.9737528581255</v>
+        <v>726.8393720559347</v>
       </c>
       <c r="AD3" t="n">
-        <v>535666.7536323068</v>
+        <v>587268.628905533</v>
       </c>
       <c r="AE3" t="n">
-        <v>732922.884269034</v>
+        <v>803526.8465319308</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.993677188053677e-06</v>
+        <v>3.389119085986803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.24305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>662973.7528581255</v>
+        <v>726839.3720559347</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.8875289109657</v>
+        <v>463.2373197149141</v>
       </c>
       <c r="AB4" t="n">
-        <v>577.245129420165</v>
+        <v>633.8217374221504</v>
       </c>
       <c r="AC4" t="n">
-        <v>522.1536644369313</v>
+        <v>573.3306803769751</v>
       </c>
       <c r="AD4" t="n">
-        <v>421887.5289109657</v>
+        <v>463237.3197149141</v>
       </c>
       <c r="AE4" t="n">
-        <v>577245.129420165</v>
+        <v>633821.7374221503</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268014848702113e-06</v>
+        <v>3.855474926982438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.006076388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>522153.6644369313</v>
+        <v>573330.6803769751</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.943564230584</v>
+        <v>431.5453499952592</v>
       </c>
       <c r="AB5" t="n">
-        <v>519.8555465073424</v>
+        <v>590.459386300691</v>
       </c>
       <c r="AC5" t="n">
-        <v>470.2412627705228</v>
+        <v>534.1067711871057</v>
       </c>
       <c r="AD5" t="n">
-        <v>379943.564230584</v>
+        <v>431545.3499952592</v>
       </c>
       <c r="AE5" t="n">
-        <v>519855.5465073424</v>
+        <v>590459.3863006909</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.356480509425794e-06</v>
+        <v>4.005860687029058e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.667534722222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>470241.2627705229</v>
+        <v>534106.7711871057</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>380.391361979544</v>
+        <v>431.9931477442192</v>
       </c>
       <c r="AB6" t="n">
-        <v>520.4682431429119</v>
+        <v>591.0720829362604</v>
       </c>
       <c r="AC6" t="n">
-        <v>470.7954844991187</v>
+        <v>534.6609929157016</v>
       </c>
       <c r="AD6" t="n">
-        <v>380391.361979544</v>
+        <v>431993.1477442192</v>
       </c>
       <c r="AE6" t="n">
-        <v>520468.2431429119</v>
+        <v>591072.0829362604</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.359021544361475e-06</v>
+        <v>4.010180278009121e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.658854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>470795.4844991188</v>
+        <v>534660.9929157016</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.9542646872372</v>
+        <v>550.9950860015582</v>
       </c>
       <c r="AB2" t="n">
-        <v>688.1642137212316</v>
+        <v>753.8957848549416</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.4867870082167</v>
+        <v>681.9450292477646</v>
       </c>
       <c r="AD2" t="n">
-        <v>502954.2646872372</v>
+        <v>550995.0860015582</v>
       </c>
       <c r="AE2" t="n">
-        <v>688164.2137212316</v>
+        <v>753895.7848549415</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.978575289501975e-06</v>
+        <v>3.567839456914737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.16753472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>622486.7870082166</v>
+        <v>681945.0292477646</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.5467011981243</v>
+        <v>378.9793761512913</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.9510204394008</v>
+        <v>518.5363018402783</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.481309015028</v>
+        <v>469.0479249629117</v>
       </c>
       <c r="AD3" t="n">
-        <v>340546.7011981243</v>
+        <v>378979.3761512913</v>
       </c>
       <c r="AE3" t="n">
-        <v>465951.0204394008</v>
+        <v>518536.3018402783</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436031100531275e-06</v>
+        <v>4.392740536517366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.069010416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>421481.309015028</v>
+        <v>469047.9249629118</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.1639612650503</v>
+        <v>380.5966362182173</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.1638270114475</v>
+        <v>520.7491084123251</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.4829284335322</v>
+        <v>471.049544381416</v>
       </c>
       <c r="AD4" t="n">
-        <v>342163.9612650503</v>
+        <v>380596.6362182173</v>
       </c>
       <c r="AE4" t="n">
-        <v>468163.8270114475</v>
+        <v>520749.108412325</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436234730983546e-06</v>
+        <v>4.393107730409911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.069010416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>423482.9284335322</v>
+        <v>471049.5443814159</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.4965165934751</v>
+        <v>395.7551190908562</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.1965527013085</v>
+        <v>541.4896134237363</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.5581448645718</v>
+        <v>489.8106047040197</v>
       </c>
       <c r="AD2" t="n">
-        <v>349496.5165934751</v>
+        <v>395755.1190908562</v>
       </c>
       <c r="AE2" t="n">
-        <v>478196.5527013085</v>
+        <v>541489.6134237363</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.326269924736954e-06</v>
+        <v>4.340076104271343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.893663194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>432558.1448645717</v>
+        <v>489810.6047040197</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.2722790612178</v>
+        <v>372.3602893580069</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.4201263286256</v>
+        <v>509.4797752762063</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.8144160264032</v>
+        <v>460.8557405832001</v>
       </c>
       <c r="AD3" t="n">
-        <v>326272.2790612178</v>
+        <v>372360.2893580068</v>
       </c>
       <c r="AE3" t="n">
-        <v>446420.1263286256</v>
+        <v>509479.7752762063</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.427767158163291e-06</v>
+        <v>4.529437498991306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.481336805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>403814.4160264032</v>
+        <v>460855.7405832001</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.9707246485266</v>
+        <v>370.6009788183396</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.6933292255624</v>
+        <v>507.0726089805304</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.3022465766844</v>
+        <v>458.6783108603044</v>
       </c>
       <c r="AD2" t="n">
-        <v>316970.7246485266</v>
+        <v>370600.9788183396</v>
       </c>
       <c r="AE2" t="n">
-        <v>433693.3292255623</v>
+        <v>507072.6089805304</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.381953396891357e-06</v>
+        <v>4.580584713647542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.995659722222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>392302.2465766844</v>
+        <v>458678.3108603044</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.102796977986</v>
+        <v>372.7330511477989</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.6105246471214</v>
+        <v>509.9898044020894</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.9410289615192</v>
+        <v>461.3170932451392</v>
       </c>
       <c r="AD3" t="n">
-        <v>319102.796977986</v>
+        <v>372733.0511477989</v>
       </c>
       <c r="AE3" t="n">
-        <v>436610.5246471214</v>
+        <v>509989.8044020894</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382721379654852e-06</v>
+        <v>4.582061572981315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>394941.0289615192</v>
+        <v>461317.0932451392</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.3582657615343</v>
+        <v>397.6854149161296</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.2709035800783</v>
+        <v>544.1307293305167</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.9117155892974</v>
+        <v>492.1996562154866</v>
       </c>
       <c r="AD2" t="n">
-        <v>347358.2657615343</v>
+        <v>397685.4149161295</v>
       </c>
       <c r="AE2" t="n">
-        <v>475270.9035800783</v>
+        <v>544130.7293305168</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101795683929005e-06</v>
+        <v>4.335162351315106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.15711805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>429911.7155892974</v>
+        <v>492199.6562154866</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>678.4109308218021</v>
+        <v>747.697171758542</v>
       </c>
       <c r="AB2" t="n">
-        <v>928.2317649283486</v>
+        <v>1023.032256471216</v>
       </c>
       <c r="AC2" t="n">
-        <v>839.6426280650506</v>
+        <v>925.3954937483923</v>
       </c>
       <c r="AD2" t="n">
-        <v>678410.9308218021</v>
+        <v>747697.1717585421</v>
       </c>
       <c r="AE2" t="n">
-        <v>928231.7649283486</v>
+        <v>1023032.256471216</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.684935144832721e-06</v>
+        <v>2.960364582527383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.68446180555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>839642.6280650507</v>
+        <v>925395.4937483922</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.0605113596607</v>
+        <v>424.7015047489613</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.8567793131203</v>
+        <v>581.0953353055629</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.5743077436093</v>
+        <v>525.6364120764247</v>
       </c>
       <c r="AD3" t="n">
-        <v>385060.5113596607</v>
+        <v>424701.5047489613</v>
       </c>
       <c r="AE3" t="n">
-        <v>526856.7793131203</v>
+        <v>581095.3353055629</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.323851522370693e-06</v>
+        <v>4.082915454031629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.197048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>476574.3077436093</v>
+        <v>525636.4120764247</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.6554713903849</v>
+        <v>399.1212603867503</v>
       </c>
       <c r="AB4" t="n">
-        <v>478.4140416670315</v>
+        <v>546.0953164484515</v>
       </c>
       <c r="AC4" t="n">
-        <v>432.7548769886539</v>
+        <v>493.976745896201</v>
       </c>
       <c r="AD4" t="n">
-        <v>349655.4713903849</v>
+        <v>399121.2603867503</v>
       </c>
       <c r="AE4" t="n">
-        <v>478414.0416670315</v>
+        <v>546095.3164484515</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.412086583140425e-06</v>
+        <v>4.23794097512716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.860677083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>432754.8769886539</v>
+        <v>493976.745896201</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>993.4608490585198</v>
+        <v>1065.26628597398</v>
       </c>
       <c r="AB2" t="n">
-        <v>1359.296962081275</v>
+        <v>1457.544328701309</v>
       </c>
       <c r="AC2" t="n">
-        <v>1229.567567805505</v>
+        <v>1318.438343646369</v>
       </c>
       <c r="AD2" t="n">
-        <v>993460.8490585198</v>
+        <v>1065266.28597398</v>
       </c>
       <c r="AE2" t="n">
-        <v>1359296.962081275</v>
+        <v>1457544.328701309</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.369812423782663e-06</v>
+        <v>2.342226589490432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1229567.567805505</v>
+        <v>1318438.343646369</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.9142782521754</v>
+        <v>557.1185607682326</v>
       </c>
       <c r="AB3" t="n">
-        <v>692.2142348673621</v>
+        <v>762.2741931793458</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.1502798204008</v>
+        <v>689.5238140408578</v>
       </c>
       <c r="AD3" t="n">
-        <v>505914.2782521754</v>
+        <v>557118.5607682326</v>
       </c>
       <c r="AE3" t="n">
-        <v>692214.2348673621</v>
+        <v>762274.1931793458</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.05533545456936e-06</v>
+        <v>3.514394575806947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.01953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>626150.2798204008</v>
+        <v>689523.8140408578</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>390.8238737928683</v>
+        <v>442.0280668003744</v>
       </c>
       <c r="AB4" t="n">
-        <v>534.7424660558405</v>
+        <v>604.8023018982758</v>
       </c>
       <c r="AC4" t="n">
-        <v>483.7073956112352</v>
+        <v>547.0808190504657</v>
       </c>
       <c r="AD4" t="n">
-        <v>390823.8737928683</v>
+        <v>442028.0668003744</v>
       </c>
       <c r="AE4" t="n">
-        <v>534742.4660558405</v>
+        <v>604802.3018982759</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.318669675282688e-06</v>
+        <v>3.964666746630359e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.882378472222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>483707.3956112352</v>
+        <v>547080.8190504657</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.5039207657991</v>
+        <v>423.7081137733053</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.6762981049183</v>
+        <v>579.7361339473536</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.0335075489613</v>
+        <v>524.4069309881918</v>
       </c>
       <c r="AD5" t="n">
-        <v>372503.9207657991</v>
+        <v>423708.1137733053</v>
       </c>
       <c r="AE5" t="n">
-        <v>509676.2981049183</v>
+        <v>579736.1339473536</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.370197776849296e-06</v>
+        <v>4.052774057894183e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.689236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>461033.5075489613</v>
+        <v>524406.9309881917</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>382.1275540557825</v>
+        <v>447.145640935189</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.84377773701</v>
+        <v>611.8043926009657</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.9443014056399</v>
+        <v>553.4146400439868</v>
       </c>
       <c r="AD2" t="n">
-        <v>382127.5540557825</v>
+        <v>447145.640935189</v>
       </c>
       <c r="AE2" t="n">
-        <v>522843.77773701</v>
+        <v>611804.3926009657</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819389027386065e-06</v>
+        <v>3.899788678919962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>472944.3014056399</v>
+        <v>553414.6400439867</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.4777849822641</v>
+        <v>446.2837535116405</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.5831291287888</v>
+        <v>610.6251202042772</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.4180024189761</v>
+        <v>552.3479157497192</v>
       </c>
       <c r="AD2" t="n">
-        <v>399477.7849822641</v>
+        <v>446283.7535116405</v>
       </c>
       <c r="AE2" t="n">
-        <v>546583.1291287887</v>
+        <v>610625.1202042772</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208857666179217e-06</v>
+        <v>4.069671229582538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>494418.0024189761</v>
+        <v>552347.9157497191</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>330.3367430375004</v>
+        <v>377.0573707123052</v>
       </c>
       <c r="AB3" t="n">
-        <v>451.9813052524709</v>
+        <v>515.9065292057618</v>
       </c>
       <c r="AC3" t="n">
-        <v>408.8448438389204</v>
+        <v>466.6691341377245</v>
       </c>
       <c r="AD3" t="n">
-        <v>330336.7430375004</v>
+        <v>377057.3707123052</v>
       </c>
       <c r="AE3" t="n">
-        <v>451981.3052524709</v>
+        <v>515906.5292057617</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436379934420151e-06</v>
+        <v>4.488865659050302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.309895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>408844.8438389205</v>
+        <v>466669.1341377245</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>553.307057148202</v>
+        <v>611.5896425936164</v>
       </c>
       <c r="AB2" t="n">
-        <v>757.0591257747479</v>
+        <v>836.8039304273641</v>
       </c>
       <c r="AC2" t="n">
-        <v>684.8064653499616</v>
+        <v>756.9405377690684</v>
       </c>
       <c r="AD2" t="n">
-        <v>553307.0571482021</v>
+        <v>611589.6425936164</v>
       </c>
       <c r="AE2" t="n">
-        <v>757059.1257747479</v>
+        <v>836803.9304273641</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.876408326017446e-06</v>
+        <v>3.35206653737688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.63628472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>684806.4653499617</v>
+        <v>756940.5377690685</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.8949176063382</v>
+        <v>388.7500640784988</v>
       </c>
       <c r="AB3" t="n">
-        <v>478.7416625433202</v>
+        <v>531.9049881146126</v>
       </c>
       <c r="AC3" t="n">
-        <v>433.0512301883284</v>
+        <v>481.1407225822928</v>
       </c>
       <c r="AD3" t="n">
-        <v>349894.9176063382</v>
+        <v>388750.0640784989</v>
       </c>
       <c r="AE3" t="n">
-        <v>478741.6625433202</v>
+        <v>531904.9881146126</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.418763585414381e-06</v>
+        <v>4.320944628135211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.027777777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>433051.2301883284</v>
+        <v>481140.7225822927</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>338.3370504647206</v>
+        <v>386.8205308146609</v>
       </c>
       <c r="AB4" t="n">
-        <v>462.9276788230474</v>
+        <v>529.2649155780298</v>
       </c>
       <c r="AC4" t="n">
-        <v>418.7465108792528</v>
+        <v>478.7526148632363</v>
       </c>
       <c r="AD4" t="n">
-        <v>338337.0504647206</v>
+        <v>386820.5308146608</v>
       </c>
       <c r="AE4" t="n">
-        <v>462927.6788230474</v>
+        <v>529264.9155780298</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.429832060095951e-06</v>
+        <v>4.340717650395586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.986545138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>418746.5108792528</v>
+        <v>478752.6148632363</v>
       </c>
     </row>
   </sheetData>
